--- a/yolol__gruber_test_projected.xlsx
+++ b/yolol__gruber_test_projected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,109 +622,109 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.167051076889038</v>
+        <v>4.790627002716064</v>
       </c>
       <c r="C2" t="n">
-        <v>5.431003093719482</v>
+        <v>3.471803426742554</v>
       </c>
       <c r="D2" t="n">
-        <v>4.845011234283447</v>
+        <v>5.528771877288818</v>
       </c>
       <c r="E2" t="n">
-        <v>2.013660907745361</v>
+        <v>1.515810012817383</v>
       </c>
       <c r="F2" t="n">
-        <v>2.026241779327393</v>
+        <v>1.640370488166809</v>
       </c>
       <c r="G2" t="n">
-        <v>8.24763011932373</v>
+        <v>8.553400993347168</v>
       </c>
       <c r="H2" t="n">
-        <v>9.384291648864746</v>
+        <v>3.434449911117554</v>
       </c>
       <c r="I2" t="n">
-        <v>4.126110553741455</v>
+        <v>7.184367656707764</v>
       </c>
       <c r="J2" t="n">
-        <v>4.713366508483887</v>
+        <v>4.368801593780518</v>
       </c>
       <c r="K2" t="n">
-        <v>5.126356601715088</v>
+        <v>11.96891498565674</v>
       </c>
       <c r="L2" t="n">
-        <v>2.386133909225464</v>
+        <v>2.320415735244751</v>
       </c>
       <c r="M2" t="n">
-        <v>8.394326210021973</v>
+        <v>16.1850757598877</v>
       </c>
       <c r="N2" t="n">
-        <v>4.251177310943604</v>
+        <v>3.621135711669922</v>
       </c>
       <c r="O2" t="n">
-        <v>1.874517440795898</v>
+        <v>2.359269380569458</v>
       </c>
       <c r="P2" t="n">
-        <v>1.633095741271973</v>
+        <v>2.11217188835144</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.478086709976196</v>
+        <v>2.331195592880249</v>
       </c>
       <c r="R2" t="n">
-        <v>2.176907777786255</v>
+        <v>2.572646856307983</v>
       </c>
       <c r="S2" t="n">
-        <v>5.827776432037354</v>
+        <v>8.691864967346191</v>
       </c>
       <c r="T2" t="n">
-        <v>3.253495931625366</v>
+        <v>2.903553485870361</v>
       </c>
       <c r="U2" t="n">
-        <v>6.723921775817871</v>
+        <v>11.65599727630615</v>
       </c>
       <c r="V2" t="n">
-        <v>2.556332588195801</v>
+        <v>3.356858015060425</v>
       </c>
       <c r="W2" t="n">
-        <v>2.171875715255737</v>
+        <v>2.586503028869629</v>
       </c>
       <c r="X2" t="n">
-        <v>1.82536506652832</v>
+        <v>2.41079568862915</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.76613450050354</v>
+        <v>2.568061590194702</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.062701940536499</v>
+        <v>2.81662654876709</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.031692504882812</v>
+        <v>12.31618213653564</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.293527126312256</v>
+        <v>3.534835815429688</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.936891555786133</v>
+        <v>11.71020221710205</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.12255072593689</v>
+        <v>2.451282024383545</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.921775221824646</v>
+        <v>2.689988613128662</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.771191358566284</v>
+        <v>1.815109610557556</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.713179707527161</v>
+        <v>2.488374948501587</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.201182842254639</v>
+        <v>2.999590396881104</v>
       </c>
       <c r="AI2" t="n">
-        <v>11.71320056915283</v>
+        <v>8.994539260864258</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.948907852172852</v>
+        <v>4.382999420166016</v>
       </c>
     </row>
     <row r="3">
@@ -734,557 +734,669 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.650435699782515</v>
+        <v>8.243906123714552</v>
       </c>
       <c r="C3" t="n">
-        <v>12.37142907168624</v>
+        <v>8.124302425411893</v>
       </c>
       <c r="D3" t="n">
-        <v>11.86351455916883</v>
+        <v>12.20459538196576</v>
       </c>
       <c r="E3" t="n">
-        <v>4.900007081936676</v>
+        <v>0.548609912741473</v>
       </c>
       <c r="F3" t="n">
-        <v>4.814158524748374</v>
+        <v>0.588163988515882</v>
       </c>
       <c r="G3" t="n">
-        <v>11.77540028553348</v>
+        <v>13.09021818311189</v>
       </c>
       <c r="H3" t="n">
-        <v>11.32622738449424</v>
+        <v>6.547050132971214</v>
       </c>
       <c r="I3" t="n">
-        <v>10.25673790304386</v>
+        <v>15.39117906000521</v>
       </c>
       <c r="J3" t="n">
-        <v>10.9633942389893</v>
+        <v>9.108277048816152</v>
       </c>
       <c r="K3" t="n">
-        <v>15.43292438448565</v>
+        <v>24.70801729928177</v>
       </c>
       <c r="L3" t="n">
-        <v>6.483160726231223</v>
+        <v>5.673862750001923</v>
       </c>
       <c r="M3" t="n">
-        <v>18.91030234629379</v>
+        <v>25.89913659232057</v>
       </c>
       <c r="N3" t="n">
-        <v>10.24675033724154</v>
+        <v>8.778624754533888</v>
       </c>
       <c r="O3" t="n">
-        <v>4.973425210894757</v>
+        <v>6.893074037879273</v>
       </c>
       <c r="P3" t="n">
-        <v>4.252956285459626</v>
+        <v>4.82711447035732</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5279823394846783</v>
+        <v>5.851848402501979</v>
       </c>
       <c r="R3" t="n">
-        <v>5.277698086258312</v>
+        <v>8.105517023307197</v>
       </c>
       <c r="S3" t="n">
-        <v>16.38572848682331</v>
+        <v>21.17285184884045</v>
       </c>
       <c r="T3" t="n">
-        <v>7.450961611101278</v>
+        <v>6.953499939730377</v>
       </c>
       <c r="U3" t="n">
-        <v>16.90872107880996</v>
+        <v>22.17928435042202</v>
       </c>
       <c r="V3" t="n">
-        <v>6.16416971789946</v>
+        <v>8.714842874551726</v>
       </c>
       <c r="W3" t="n">
-        <v>5.165328579523917</v>
+        <v>7.859307048041234</v>
       </c>
       <c r="X3" t="n">
-        <v>4.247426700118192</v>
+        <v>6.471044750735048</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7207491647371206</v>
+        <v>7.041350631952525</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.010814549689869</v>
+        <v>8.488776225830257</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.75519012136506</v>
+        <v>24.72721714744995</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.11639088330501</v>
+        <v>8.364088290738438</v>
       </c>
       <c r="AC3" t="n">
-        <v>20.08691975344398</v>
+        <v>22.90129413719849</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.40646351163066</v>
+        <v>4.916103697189822</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.105203968115198</v>
+        <v>6.212350678739583</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.129300912835638</v>
+        <v>3.969941963246536</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.69861474369163</v>
+        <v>5.00926635939864</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.178538385524727</v>
+        <v>6.997881198885597</v>
       </c>
       <c r="AI3" t="n">
-        <v>14.87895508792831</v>
+        <v>13.45016792828651</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.607702625518483</v>
+        <v>7.651912036380188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4166666666666667</v>
+        <v>9.599362373352051</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5984848484848485</v>
+        <v>8.972307205200195</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6212121212121212</v>
+        <v>13.70951271057129</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8409090909090909</v>
+        <v>1.645832538604736</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8106060606060606</v>
+        <v>1.778570771217346</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5227272727272727</v>
+        <v>15.94408321380615</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5303030303030303</v>
+        <v>7.499790191650391</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5075757575757576</v>
+        <v>16.98539161682129</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6212121212121212</v>
+        <v>10.25279235839844</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5833333333333334</v>
+        <v>28.75759506225586</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8636363636363636</v>
+        <v>6.808588981628418</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6136363636363636</v>
+        <v>31.37385940551758</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8787878787878788</v>
+        <v>10.14992237091064</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9090909090909091</v>
+        <v>7.737467288970947</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9621212121212122</v>
+        <v>6.089557647705078</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8560606060606061</v>
+        <v>7.225437164306641</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7424242424242424</v>
+        <v>8.874629020690918</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5303030303030303</v>
+        <v>23.62883949279785</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5833333333333334</v>
+        <v>7.535368919372559</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5</v>
+        <v>25.7996711730957</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6742424242424242</v>
+        <v>9.729485511779785</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6742424242424242</v>
+        <v>8.632175445556641</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7954545454545454</v>
+        <v>7.535880565643311</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.696969696969697</v>
+        <v>8.10368537902832</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6439393939393939</v>
+        <v>9.169053077697754</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5833333333333334</v>
+        <v>28.03157806396484</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6287878787878788</v>
+        <v>9.22193431854248</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.5833333333333334</v>
+        <v>25.54205894470215</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.7196969696969697</v>
+        <v>5.616481781005859</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.8636363636363636</v>
+        <v>7.103557109832764</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8636363636363636</v>
+        <v>4.698193550109863</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.7727272727272727</v>
+        <v>5.955408096313477</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.6742424242424242</v>
+        <v>7.857151985168457</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.4090909090909091</v>
+        <v>16.08213043212891</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.5378787878787878</v>
+        <v>9.00425910949707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5378787878787878</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7348484848484849</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9242424242424242</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9242424242424242</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5984848484848485</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6439393939393939</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9015151515151515</v>
+        <v>0.8771929824561403</v>
       </c>
       <c r="M5" t="n">
-        <v>0.75</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9242424242424242</v>
+        <v>0.8771929824561403</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9924242424242424</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9621212121212122</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8939393939393939</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6590909090909091</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7348484848484849</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6287878787878788</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="V5" t="n">
-        <v>0.803030303030303</v>
+        <v>0.8245614035087719</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8245614035087719</v>
       </c>
       <c r="X5" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.9318181818181818</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.5</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.6439393939393939</v>
+        <v>0.4912280701754386</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6515151515151515</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8245614035087719</v>
       </c>
       <c r="E6" t="n">
-        <v>0.946969696969697</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6515151515151515</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6287878787878788</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8939393939393939</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9242424242424242</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8257575757575758</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.9649122807017544</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9924242424242424</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9772727272727273</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8257575757575758</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7348484848484849</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8863636363636364</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9848484848484849</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.9242424242424242</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.8560606060606061</v>
+        <v>0.8596491228070176</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7803030303030303</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.803030303030303</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.946969696969697</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.8596491228070176</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.9621212121212122</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.9621212121212122</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.8712121212121212</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.553030303030303</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.7348484848484849</v>
+        <v>0.6140350877192983</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6140350877192983</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9649122807017544</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7543859649122807</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6491228070175439</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9649122807017544</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.9649122807017544</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.9122807017543859</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.9122807017543859</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.9649122807017544</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.7719298245614035</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.7192982456140351</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.9122807017543859</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.9122807017543859</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.7017543859649122</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>4.</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.7878787878787878</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9393939393939394</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.9848484848484849</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.7196969696969697</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.6742424242424242</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.8787878787878788</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.8863636363636364</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.946969696969697</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.9545454545454546</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.8712121212121212</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.9393939393939394</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.9924242424242424</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.9924242424242424</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="B8" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9122807017543859</v>
+      </c>
+      <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="R7" t="n">
-        <v>0.9924242424242424</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.8863636363636364</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.9015151515151515</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.8560606060606061</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.9621212121212122</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.9924242424242424</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.9924242424242424</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="Z7" t="n">
-        <v>0.9318181818181818</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.8787878787878788</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.8560606060606061</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.8636363636363636</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.9848484848484849</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.9924242424242424</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0.9848484848484849</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0.9848484848484849</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0.6439393939393939</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0.8712121212121212</v>
+      <c r="G8" t="n">
+        <v>0.7719298245614035</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.7719298245614035</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.9122807017543859</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.9298245614035088</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.9649122807017544</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.9649122807017544</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.8245614035087719</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.9122807017543859</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.7719298245614035</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.9649122807017544</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.9824561403508771</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.6140350877192983</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.8771929824561403</v>
       </c>
     </row>
   </sheetData>

--- a/yolol__gruber_test_projected.xlsx
+++ b/yolol__gruber_test_projected.xlsx
@@ -622,109 +622,109 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.790627002716064</v>
+        <v>1.186417698860168</v>
       </c>
       <c r="C2" t="n">
-        <v>3.471803426742554</v>
+        <v>1.057254195213318</v>
       </c>
       <c r="D2" t="n">
-        <v>5.528771877288818</v>
+        <v>3.650390863418579</v>
       </c>
       <c r="E2" t="n">
-        <v>1.515810012817383</v>
+        <v>0.8698465824127197</v>
       </c>
       <c r="F2" t="n">
-        <v>1.640370488166809</v>
+        <v>6.591834545135498</v>
       </c>
       <c r="G2" t="n">
-        <v>8.553400993347168</v>
+        <v>3.513329029083252</v>
       </c>
       <c r="H2" t="n">
-        <v>3.434449911117554</v>
+        <v>3.8900465965271</v>
       </c>
       <c r="I2" t="n">
-        <v>7.184367656707764</v>
+        <v>2.404091119766235</v>
       </c>
       <c r="J2" t="n">
-        <v>4.368801593780518</v>
+        <v>2.711075305938721</v>
       </c>
       <c r="K2" t="n">
-        <v>11.96891498565674</v>
+        <v>0.3779866695404053</v>
       </c>
       <c r="L2" t="n">
-        <v>2.320415735244751</v>
+        <v>1.782437205314636</v>
       </c>
       <c r="M2" t="n">
-        <v>16.1850757598877</v>
+        <v>1.131090879440308</v>
       </c>
       <c r="N2" t="n">
-        <v>3.621135711669922</v>
+        <v>2.288365840911865</v>
       </c>
       <c r="O2" t="n">
-        <v>2.359269380569458</v>
+        <v>1.563695907592773</v>
       </c>
       <c r="P2" t="n">
-        <v>2.11217188835144</v>
+        <v>1.323007106781006</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.331195592880249</v>
+        <v>1.178711414337158</v>
       </c>
       <c r="R2" t="n">
-        <v>2.572646856307983</v>
+        <v>0.7504640817642212</v>
       </c>
       <c r="S2" t="n">
-        <v>8.691864967346191</v>
+        <v>1.494445443153381</v>
       </c>
       <c r="T2" t="n">
-        <v>2.903553485870361</v>
+        <v>0.88982754945755</v>
       </c>
       <c r="U2" t="n">
-        <v>11.65599727630615</v>
+        <v>1.465473413467407</v>
       </c>
       <c r="V2" t="n">
-        <v>3.356858015060425</v>
+        <v>2.943515062332153</v>
       </c>
       <c r="W2" t="n">
-        <v>2.586503028869629</v>
+        <v>1.683408498764038</v>
       </c>
       <c r="X2" t="n">
-        <v>2.41079568862915</v>
+        <v>1.418002486228943</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.568061590194702</v>
+        <v>1.220341205596924</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.81662654876709</v>
+        <v>2.062339067459106</v>
       </c>
       <c r="AA2" t="n">
-        <v>12.31618213653564</v>
+        <v>1.545390844345093</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.534835815429688</v>
+        <v>0.3795363306999207</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.71020221710205</v>
+        <v>0.3348425030708313</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.451282024383545</v>
+        <v>2.586459398269653</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.689988613128662</v>
+        <v>0.5092278718948364</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.815109610557556</v>
+        <v>2.560075998306274</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.488374948501587</v>
+        <v>1.080008506774902</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.999590396881104</v>
+        <v>0.5108110904693604</v>
       </c>
       <c r="AI2" t="n">
-        <v>8.994539260864258</v>
+        <v>1.083120584487915</v>
       </c>
       <c r="AJ2" t="n">
-        <v>4.382999420166016</v>
+        <v>1.650844812393188</v>
       </c>
     </row>
     <row r="3">
@@ -733,111 +733,41 @@
           <t>SD</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>8.243906123714552</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8.124302425411893</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.20459538196576</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.548609912741473</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.588163988515882</v>
-      </c>
-      <c r="G3" t="n">
-        <v>13.09021818311189</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6.547050132971214</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15.39117906000521</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.108277048816152</v>
-      </c>
-      <c r="K3" t="n">
-        <v>24.70801729928177</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.673862750001923</v>
-      </c>
-      <c r="M3" t="n">
-        <v>25.89913659232057</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8.778624754533888</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6.893074037879273</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.82711447035732</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5.851848402501979</v>
-      </c>
-      <c r="R3" t="n">
-        <v>8.105517023307197</v>
-      </c>
-      <c r="S3" t="n">
-        <v>21.17285184884045</v>
-      </c>
-      <c r="T3" t="n">
-        <v>6.953499939730377</v>
-      </c>
-      <c r="U3" t="n">
-        <v>22.17928435042202</v>
-      </c>
-      <c r="V3" t="n">
-        <v>8.714842874551726</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.859307048041234</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6.471044750735048</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7.041350631952525</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>8.488776225830257</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>24.72721714744995</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>8.364088290738438</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>22.90129413719849</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>4.916103697189822</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>6.212350678739583</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3.969941963246536</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>5.00926635939864</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6.997881198885597</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>13.45016792828651</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>7.651912036380188</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -846,109 +776,109 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.599362373352051</v>
+        <v>1.186417698860168</v>
       </c>
       <c r="C4" t="n">
-        <v>8.972307205200195</v>
+        <v>1.057254195213318</v>
       </c>
       <c r="D4" t="n">
-        <v>13.70951271057129</v>
+        <v>3.650390863418579</v>
       </c>
       <c r="E4" t="n">
-        <v>1.645832538604736</v>
+        <v>0.8698465824127197</v>
       </c>
       <c r="F4" t="n">
-        <v>1.778570771217346</v>
+        <v>6.591834545135498</v>
       </c>
       <c r="G4" t="n">
-        <v>15.94408321380615</v>
+        <v>3.513329029083252</v>
       </c>
       <c r="H4" t="n">
-        <v>7.499790191650391</v>
+        <v>3.8900465965271</v>
       </c>
       <c r="I4" t="n">
-        <v>16.98539161682129</v>
+        <v>2.404091119766235</v>
       </c>
       <c r="J4" t="n">
-        <v>10.25279235839844</v>
+        <v>2.711075305938721</v>
       </c>
       <c r="K4" t="n">
-        <v>28.75759506225586</v>
+        <v>0.3779866695404053</v>
       </c>
       <c r="L4" t="n">
-        <v>6.808588981628418</v>
+        <v>1.782437205314636</v>
       </c>
       <c r="M4" t="n">
-        <v>31.37385940551758</v>
+        <v>1.131090879440308</v>
       </c>
       <c r="N4" t="n">
-        <v>10.14992237091064</v>
+        <v>2.288365840911865</v>
       </c>
       <c r="O4" t="n">
-        <v>7.737467288970947</v>
+        <v>1.563695907592773</v>
       </c>
       <c r="P4" t="n">
-        <v>6.089557647705078</v>
+        <v>1.323007106781006</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.225437164306641</v>
+        <v>1.178711414337158</v>
       </c>
       <c r="R4" t="n">
-        <v>8.874629020690918</v>
+        <v>0.7504640817642212</v>
       </c>
       <c r="S4" t="n">
-        <v>23.62883949279785</v>
+        <v>1.494445443153381</v>
       </c>
       <c r="T4" t="n">
-        <v>7.535368919372559</v>
+        <v>0.88982754945755</v>
       </c>
       <c r="U4" t="n">
-        <v>25.7996711730957</v>
+        <v>1.465473413467407</v>
       </c>
       <c r="V4" t="n">
-        <v>9.729485511779785</v>
+        <v>2.943515062332153</v>
       </c>
       <c r="W4" t="n">
-        <v>8.632175445556641</v>
+        <v>1.683408498764038</v>
       </c>
       <c r="X4" t="n">
-        <v>7.535880565643311</v>
+        <v>1.418002486228943</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.10368537902832</v>
+        <v>1.220341205596924</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.169053077697754</v>
+        <v>2.062339067459106</v>
       </c>
       <c r="AA4" t="n">
-        <v>28.03157806396484</v>
+        <v>1.545390844345093</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.22193431854248</v>
+        <v>0.3795363306999207</v>
       </c>
       <c r="AC4" t="n">
-        <v>25.54205894470215</v>
+        <v>0.3348425030708313</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.616481781005859</v>
+        <v>2.586459398269653</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.103557109832764</v>
+        <v>0.5092278718948364</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.698193550109863</v>
+        <v>2.560075998306274</v>
       </c>
       <c r="AG4" t="n">
-        <v>5.955408096313477</v>
+        <v>1.080008506774902</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.857151985168457</v>
+        <v>0.5108110904693604</v>
       </c>
       <c r="AI4" t="n">
-        <v>16.08213043212891</v>
+        <v>1.083120584487915</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.00425910949707</v>
+        <v>1.650844812393188</v>
       </c>
     </row>
     <row r="5">
@@ -958,109 +888,109 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2631578947368421</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6842105263157895</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6842105263157895</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7719298245614035</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6842105263157895</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7192982456140351</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4912280701754386</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5964912280701754</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7192982456140351</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8771929824561403</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5964912280701754</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8771929824561403</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9298245614035088</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6842105263157895</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5789473684210527</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0.5614035087719298</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8245614035087719</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8245614035087719</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>0.9122807017543859</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.8947368421052632</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.7192982456140351</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5614035087719298</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.5964912280701754</v>
+        <v>1</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5614035087719298</v>
+        <v>1</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.8421052631578947</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.9473684210526315</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.7719298245614035</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.7192982456140351</v>
+        <v>1</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.3684210526315789</v>
+        <v>1</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.4912280701754386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1070,109 +1000,109 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3684210526315789</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7894736842105263</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8245614035087719</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9122807017543859</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7192982456140351</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7543859649122807</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5614035087719298</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.631578947368421</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9649122807017544</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7543859649122807</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9298245614035088</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9649122807017544</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8070175438596491</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7543859649122807</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7192982456140351</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8947368421052632</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9298245614035088</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.8596491228070176</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.7543859649122807</v>
+        <v>1</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.6842105263157895</v>
+        <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.8947368421052632</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.8596491228070176</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.9824561403508771</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.7719298245614035</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.4912280701754386</v>
+        <v>1</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.6140350877192983</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1182,109 +1112,109 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6140350877192983</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8771929824561403</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9649122807017544</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9824561403508771</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7543859649122807</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8245614035087719</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6491228070175439</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7368421052631579</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8771929824561403</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9649122807017544</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7894736842105263</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.9649122807017544</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8947368421052632</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9122807017543859</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>0.8245614035087719</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9122807017543859</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9649122807017544</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.8947368421052632</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7719298245614035</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.7192982456140351</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.9122807017543859</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.9122807017543859</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.8771929824561403</v>
+        <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.8245614035087719</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.5789473684210527</v>
+        <v>1</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.7017543859649122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1294,109 +1224,109 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7894736842105263</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8947368421052632</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9122807017543859</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7719298245614035</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8947368421052632</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7719298245614035</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8947368421052632</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8771929824561403</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7894736842105263</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9122807017543859</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9298245614035088</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8421052631578947</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0.9649122807017544</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.9649122807017544</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.8245614035087719</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.9122807017543859</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.7719298245614035</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.9649122807017544</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.9824561403508771</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.8947368421052632</v>
+        <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6140350877192983</v>
+        <v>1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.8771929824561403</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/yolol__gruber_test_projected.xlsx
+++ b/yolol__gruber_test_projected.xlsx
@@ -622,109 +622,109 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.186417698860168</v>
+        <v>6.701317548751831</v>
       </c>
       <c r="C2" t="n">
-        <v>1.057254195213318</v>
+        <v>4.007112400399314</v>
       </c>
       <c r="D2" t="n">
-        <v>3.650390863418579</v>
+        <v>4.846241001729612</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8698465824127197</v>
+        <v>1.857068498406494</v>
       </c>
       <c r="F2" t="n">
-        <v>6.591834545135498</v>
+        <v>2.571770357066079</v>
       </c>
       <c r="G2" t="n">
-        <v>3.513329029083252</v>
+        <v>6.826751655340194</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8900465965271</v>
+        <v>4.262485955442701</v>
       </c>
       <c r="I2" t="n">
-        <v>2.404091119766235</v>
+        <v>7.25578863116411</v>
       </c>
       <c r="J2" t="n">
-        <v>2.711075305938721</v>
+        <v>8.772927737898296</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3779866695404053</v>
+        <v>2.716920540332794</v>
       </c>
       <c r="L2" t="n">
-        <v>1.782437205314636</v>
+        <v>1.400512971516166</v>
       </c>
       <c r="M2" t="n">
-        <v>1.131090879440308</v>
+        <v>4.255518593390783</v>
       </c>
       <c r="N2" t="n">
-        <v>2.288365840911865</v>
+        <v>1.652874019410875</v>
       </c>
       <c r="O2" t="n">
-        <v>1.563695907592773</v>
+        <v>2.745673475787044</v>
       </c>
       <c r="P2" t="n">
-        <v>1.323007106781006</v>
+        <v>1.286560085202966</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.178711414337158</v>
+        <v>2.187896425170558</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7504640817642212</v>
+        <v>3.877484217818294</v>
       </c>
       <c r="S2" t="n">
-        <v>1.494445443153381</v>
+        <v>4.641423268960073</v>
       </c>
       <c r="T2" t="n">
-        <v>0.88982754945755</v>
+        <v>2.325519619243486</v>
       </c>
       <c r="U2" t="n">
-        <v>1.465473413467407</v>
+        <v>2.999435407774789</v>
       </c>
       <c r="V2" t="n">
-        <v>2.943515062332153</v>
+        <v>2.286064408042214</v>
       </c>
       <c r="W2" t="n">
-        <v>1.683408498764038</v>
+        <v>3.565319912774222</v>
       </c>
       <c r="X2" t="n">
-        <v>1.418002486228943</v>
+        <v>2.332739334819572</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.220341205596924</v>
+        <v>2.064780284251486</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.062339067459106</v>
+        <v>3.458527051976749</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.545390844345093</v>
+        <v>4.187849310587864</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.3795363306999207</v>
+        <v>3.969698128917</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.3348425030708313</v>
+        <v>5.486767811700702</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.586459398269653</v>
+        <v>3.20717050595717</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5092278718948364</v>
+        <v>3.590096049010754</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.560075998306274</v>
+        <v>2.401061882397958</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.080008506774902</v>
+        <v>3.522670024739845</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.5108110904693604</v>
+        <v>4.2858019420611</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.083120584487915</v>
+        <v>3.37664715880933</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.650844812393188</v>
+        <v>2.674770631880131</v>
       </c>
     </row>
     <row r="3">
@@ -733,41 +733,111 @@
           <t>SD</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>6.481727587667324</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.055776136932819</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.176818554766428</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.351747352290463</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.936404876924423</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.639104261275435</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.623669873017528</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.545512778148753</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8.645533031577967</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.007581665363414</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.886893240317852</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.264686003089454</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.7468134664451471</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.683667116319433</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.758544988209353</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.018857601710132</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.646705982603412</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.479626916174669</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.4522817778268</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3.074376418877727</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.292851643797625</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4.260537832544635</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.715616741341594</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.9855292152220859</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2.89752618608739</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>5.002384557557412</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2.732995512268329</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5.156478886329017</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.43483308112219</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2.641751186490346</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.352026371295283</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2.484473375720245</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3.264873885301804</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2.373743902237176</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.731576289011944</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -776,109 +846,109 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.186417698860168</v>
+        <v>9.363990514991952</v>
       </c>
       <c r="C4" t="n">
-        <v>1.057254195213318</v>
+        <v>5.073515629255379</v>
       </c>
       <c r="D4" t="n">
-        <v>3.650390863418579</v>
+        <v>7.940542589686808</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8698465824127197</v>
+        <v>2.289949301863005</v>
       </c>
       <c r="F4" t="n">
-        <v>6.591834545135498</v>
+        <v>3.209031480149534</v>
       </c>
       <c r="G4" t="n">
-        <v>3.513329029083252</v>
+        <v>13.03925278769952</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8900465965271</v>
+        <v>7.292786992409183</v>
       </c>
       <c r="I4" t="n">
-        <v>2.404091119766235</v>
+        <v>11.45816851240514</v>
       </c>
       <c r="J4" t="n">
-        <v>2.711075305938721</v>
+        <v>12.42891164859454</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3779866695404053</v>
+        <v>3.449012534444893</v>
       </c>
       <c r="L4" t="n">
-        <v>1.782437205314636</v>
+        <v>2.349851630155028</v>
       </c>
       <c r="M4" t="n">
-        <v>1.131090879440308</v>
+        <v>7.252696326599764</v>
       </c>
       <c r="N4" t="n">
-        <v>2.288365840911865</v>
+        <v>1.819444848703198</v>
       </c>
       <c r="O4" t="n">
-        <v>1.563695907592773</v>
+        <v>3.839373910789983</v>
       </c>
       <c r="P4" t="n">
-        <v>1.323007106781006</v>
+        <v>1.493528490513319</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.178711414337158</v>
+        <v>2.413495717799522</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7504640817642212</v>
+        <v>5.322907887892244</v>
       </c>
       <c r="S4" t="n">
-        <v>1.494445443153381</v>
+        <v>7.340220524186193</v>
       </c>
       <c r="T4" t="n">
-        <v>0.88982754945755</v>
+        <v>2.74174467478176</v>
       </c>
       <c r="U4" t="n">
-        <v>1.465473413467407</v>
+        <v>4.449568394438519</v>
       </c>
       <c r="V4" t="n">
-        <v>2.943515062332153</v>
+        <v>2.632099186978779</v>
       </c>
       <c r="W4" t="n">
-        <v>1.683408498764038</v>
+        <v>5.555509760856201</v>
       </c>
       <c r="X4" t="n">
-        <v>1.418002486228943</v>
+        <v>2.895688796708999</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.220341205596924</v>
+        <v>2.287921645574845</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.062339067459106</v>
+        <v>4.511880690833604</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.545390844345093</v>
+        <v>6.792405244418731</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3795363306999207</v>
+        <v>4.833587954444695</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3348425030708313</v>
+        <v>7.818276106376094</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.586459398269653</v>
+        <v>3.518823719637809</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.5092278718948364</v>
+        <v>4.45731297672104</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.560075998306274</v>
+        <v>2.755553206124374</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.080008506774902</v>
+        <v>4.310662600791596</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.5108110904693604</v>
+        <v>5.387717491990499</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.083120584487915</v>
+        <v>4.273328007550294</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.650844812393188</v>
+        <v>3.212860511624751</v>
       </c>
     </row>
     <row r="5">
@@ -888,109 +958,109 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AI5" t="n">
-        <v>1</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1</v>
+        <v>0.4339622641509434</v>
       </c>
     </row>
     <row r="6">
@@ -1000,109 +1070,109 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0.9464285714285714</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="AB6" t="n">
-        <v>1</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="AH6" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AI6" t="n">
-        <v>1</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1</v>
+        <v>0.5471698113207547</v>
       </c>
     </row>
     <row r="7">
@@ -1112,109 +1182,109 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0.5892857142857143</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0.7678571428571429</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="Z7" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AF7" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AG7" t="n">
-        <v>1</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="AH7" t="n">
-        <v>1</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="AI7" t="n">
-        <v>1</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1</v>
+        <v>0.660377358490566</v>
       </c>
     </row>
     <row r="8">
@@ -1224,109 +1294,109 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0.9464285714285714</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0.8909090909090909</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="Y8" t="n">
-        <v>1</v>
+        <v>0.9464285714285714</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="AB8" t="n">
-        <v>1</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>0.5625</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="AF8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AG8" t="n">
-        <v>1</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="AI8" t="n">
-        <v>1</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1</v>
+        <v>0.8490566037735849</v>
       </c>
     </row>
   </sheetData>
